--- a/Imo_State_Ward_Projects.xlsx
+++ b/Imo_State_Ward_Projects.xlsx
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,6 +466,268 @@
       <c r="D1" t="inlineStr">
         <is>
           <t>LOCATION</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>UVURU WARD 1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Construction of 6-room lock up shop</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Orie Uvuru Market Square</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>NGURUNWENKWO WARD</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Construction of solar borehole</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Oboama Nguru Primary School</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>UVURU WARD 2</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Construction of 6 locker shops</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Umukohie Town Hall</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ama-Asaa Autonomous Community</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>UMUHU WARD</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Construction of borehole drilling and overhead tank with industrial solar panel</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Along Umunaga Road</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Umuhu</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ENYIOGUGU WARD</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Construction of six standard lock up shops</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Afor-Enyiogugu Market Square</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>IBEKU WARD</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Construction of fifteen (15) standard open shops with toilet</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Eke Ibeku Market Square</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>NGURU NWEKE WARD</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Construction of borehole drilling</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> overhead tank and renovation of civic center</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Eke Nguru Abattior Market and Umuolo Umuaham Amaohuru Nguru</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>MBUTU WARD</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Construction of solar water project</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Orie Mbutu Market Square</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>AMUZU WARD</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Construction of 6 locker shops</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Eke-Oha Market</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Amuzu Autonomous Community</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>LORJI WARD</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Construction of 16 open shops with one toilet</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Eke-Ukwu Lorji Market</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>LAGWA WARD</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Construction of 16 open shops</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Nkwo Lagwa Market</t>
         </is>
       </c>
     </row>
@@ -480,7 +742,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,6 +769,248 @@
       <c r="D1" t="inlineStr">
         <is>
           <t>LOCATION</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Njaba 2</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1 No Bore Hole</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Njaba 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Umundugba 2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Renovation of a four classroom block and head teachers office</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Town School Nnerim Ndubga</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Amurie Omanze 1</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Borehole</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Orie Amurie Market</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ekwe 1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Rehabilitation of five (5) classroom block</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Central School Ekwe</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Amurie 2</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Drilling of Public solar powered borehole with two overhead tanks</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Amaeze Amurie</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Amandugba 1</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Drilling of Borehole</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Amandugba 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Isunjaba 3</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>5 rooms lockup shop</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Isunjaba 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Amandugba 2</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Drilling of Borehole</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Amandugba 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Umundugba 1</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Installation of Solar light</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Umundugba 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Ekwe 2</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Re-roofing of Uburuekwe primary health Center</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Ekwe 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Isunjaba 1</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Installation of Solar light</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Isunjaba 1</t>
         </is>
       </c>
     </row>
@@ -521,7 +1025,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,6 +1052,275 @@
       <c r="D1" t="inlineStr">
         <is>
           <t>LOCATION</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>AFARA/EZIAMA WARD</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Water borehole</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Afara/Eziama Ward</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>AMAIKE WARD</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Water borehole</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Amaike Ward</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>EZINIHITTE WARD</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Water borehole</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Ezinhitte Ward</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>IFAKALA WARD</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Building of open shops</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Ifakala Market Square</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>OGBAKU WARD</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Water borehole</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Ogbagu Ward</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>OGWA WARD 1</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Drilling of borehole and tank stand</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Ogwa Ward 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>OGWA WARD II</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Water borehole</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Ogwa Ward II</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ORODO WARD A</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Drilling of borehole and tank stand</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Orodo Ward A</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ORODO WARD B</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Drilling and installation of village borehole</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Umudurunwa Village</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ubaha Autonomous Community</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>UBOMIRI WARD</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Drilling of borehole and tank stand</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Ubomiri Ward</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>UMUNWOHA/UMUAGWU WARD</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Renovation of open shops and construction of modern toilet facilities</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Nkwo-Ohohia Market Square</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>UMUNOHA/AZARA WARD</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Construction of modern public convenience and rehabilitation of existing water project</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Orieamaigne Market</t>
         </is>
       </c>
     </row>
@@ -562,7 +1335,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -589,6 +1362,295 @@
       <c r="D1" t="inlineStr">
         <is>
           <t>LOCATION</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>AMALA/ALULU/OBURU/OBOKWE/NTU</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Rehabilitation of Orie Orji Ntu Market</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Ntu Autonomous Community</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ngor-Okpala</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ELELEM/OBIKE WARD 2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Construction of Twenty Four (24) Open shops with six (6) toilets at Orie Umueme Obike Central Market</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Umueme Obike</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> along Umueme/Obioma/Etche Road</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>OZUZU WARD 3</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Construction of Sixteen (16) open shops with toilets at Community Market</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Nkwo Eze Central Market</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Orishaeze Ozuzu Autonomous Community</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>EZIAMA/OKPALA WARD 4</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Construction of Solar Powered Borehole at Eke Umugo Market Square</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Umuchulu Community</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>IMERIENWE/UPE WARD 5</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Construction of Solar Borehole (4% 12 Bar) of 60 meters at Umunakara Imerienwe for the first phase</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Umunakara Imerienwe</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>NGURU/UMUOWA WARD 6</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Installation of Standard Solar System Borehole Water at Orie-Nguru Market Square</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Nguru Umuaro</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>WARD 7</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Drilling of Borehole and Tank Stand in Ngor</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ihitte and Umukabia</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Ngor</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ihitte and Umukabia</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>OHEKELEM/NNORIE WARD 8</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Building of Open Shops with Toilets at Eke Odah Central Market</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Ohekelem Community</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>UMUHU WARD 9</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Rehabilitation of Market</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Umuhu Community</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>UMUHU WARD 9</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Installation of Transformer in the market</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Umuhu Community</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>OBIANGWU WARD 10</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Construction of Solar Borehole (4½ 12 bar) of 60 meters</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Eke Isu Obiangwu Market</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>UMUOHIAGU/LOGARA WARD</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Solar Powered Borehole</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Umuohiagu/Logara Ward</t>
         </is>
       </c>
     </row>
@@ -603,7 +1665,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,6 +1692,248 @@
       <c r="D1" t="inlineStr">
         <is>
           <t>LOCATION</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Amucha Ward 1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>300KVA BY 33</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Amucha Ward 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Amucha Ward 2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1 Solar Powered Borehole</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Amucha Ward 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Atta Ward 1</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1 Solar Powered Borehole</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Atta Ward 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Atta Ward 2</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Solar Street Lights</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Atta Ward 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Atta Ward 3</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1 Solar Powered Borehole</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Atta Ward 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Okwudor Ward</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Solar Powered Borehole and Solar Street Lights</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Okwudor Ward</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Nkume Ward</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Solar Street Lights</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Nkume Ward</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Umuaka Ward 1</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Solar Powered Borehole at Achara</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Achara</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Umuaka Ward 3</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Renovation of Amakor Health Centre</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Amakor Health Centre</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Umaka Ward 2</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Palm Oil Processing Plant</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Umaka Ward 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Umuaka Ward 4</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Solar Powered Borehole and Solar Street Lights</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Umuaka Ward 4</t>
         </is>
       </c>
     </row>
@@ -644,7 +1948,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -671,6 +1975,385 @@
       <c r="D1" t="inlineStr">
         <is>
           <t>LOCATION</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Nnanano 2</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Drilling of Solar powered Borehole</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Nnanano 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Nnanano 2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Renovation of classroom blocks</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Nnanano 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Amaokpara 9</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Drilling of Solar powered Borehole</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Amaokpara 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Amaokpara 9</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Renovation of classroom blocks</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Amaokpara 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Onusa 1</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Drilling of Solar powered Borehole</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Onusa 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Onusa 1</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Renovation of classroom blocks</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Onusa 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Umukor 3</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Building of new toilet in community School Nkwere</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Umukor 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Umukor 3</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Drilling of new solar borehole</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Umukor 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Umunachi/Umunubo 4</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Building of toilet facilities at Nwaeke Market</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Umunachi/Umunubo 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Umunachi/Umunubo 4</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Building of Toilet facilities in schools</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Umunachi/Umunubo 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Urban 5</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Revamping 3 Moribund water boreholes</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> adding solar sumo pumps with new tanks</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Urban 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Urban 5</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Solar street lights and erosion control</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Urban 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Owerre Nkworji 6</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Conversion of the ever busy water borehole in Umueke Village to a solar powered borehole</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Owerre Nkworji 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Owerre Nkworji 7</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Drilling of a state of the art solar all in one system borehole with flood light and street lights</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Owerre Nkworji 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Umudi/Umuwala 8</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Drilling of Solar powered Borehole with storage capacity</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Umudi/Umuwala 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Umudi/Umuwala 8</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Renovation of classroom blocks</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Umudi/Umuwala 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Eziama/Obaire 10</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Digging of solar borehole at Ezekwemba village hall</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Eziama/Obaire 10</t>
         </is>
       </c>
     </row>
@@ -685,7 +2368,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +2395,226 @@
       <c r="D1" t="inlineStr">
         <is>
           <t>LOCATION</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Amaigbo 4</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Drilling of Solar powered boreholes in strategic locations</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Amaigbo 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Abajah 1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Drilling of Borehole and tank stand</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Abajah 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Abba</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Building and equipping of Computer cyber center, solar charging centers and renovation of school blocks</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Abba</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Umuozu</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Building of new classroom blocks</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Central School Umuozu</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Amaigbo 3</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Drainage System</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Umudurule-Town school-Oburedu River-Umuba-Dim-ebo-Ndikpa</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Amaigbo 1</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Equipment of health center, solar lights, installation of water, generator for light</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Amaigbo Ward 1 Health Center</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Abajah 2</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Drilling of new boreholes</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Abajah 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Amaigbo 5</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Two Boreholes with Solar energy</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Amaigbo 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Dim-na-Nume</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Drilling of Solar powered boreholes in strategic locations</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Dim-na-Nume</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Kara na Orlu</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Rehabilitation of abandoned classrooms</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Community School Umuorlu Isu Ancient Kingdom</t>
         </is>
       </c>
     </row>
@@ -726,7 +2629,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -753,6 +2656,204 @@
       <c r="D1" t="inlineStr">
         <is>
           <t>LOCATION</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Avutu</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Avutu Road and Street lighting</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Avutu</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Amuzi</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>New Public BoreHole</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Amuzi</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Alike</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>New Public BoreHole</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Alike</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Okenalogho</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>New Public BoreHole</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Okenalogho</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Amanze/Umungwa</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>New Public BoreHole</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Amanze/Umungwa</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Odenkume/Umuosochie</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Renovation and equipping of Umuosochie Town hall</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Odenkume/Umuosochie</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Umunachi Ward 7</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Construction of 5 lockup shops at Afor Umunachi</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Umunachi Ward 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Okwuohia</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Construction of 5 lockup shops at Eke Okwuohia Market Square</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Okwuohia</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Ehume Ward</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Construction of Solar powered borehole at Ehume health Center</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Ehume Ward</t>
         </is>
       </c>
     </row>
@@ -767,7 +2868,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -794,6 +2895,280 @@
       <c r="D1" t="inlineStr">
         <is>
           <t>LOCATION</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>OGUTA WARD B</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Building of modern toilets with borehole facilities powered by solar system</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Oguta Main Market</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>MGBALLA/UBA WARD</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Renovation of dilapidated school building (2 classrooms with 2 stores)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Mgbala United Town School</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mgbala Agwa</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>OSSE-MOTOR WARD</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Building of lockup stores</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Orie Market Osse-Motor</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>OGUTA WARD A</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Building of solar powered borehole and water closet system (Rest room facilities)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>New Market Oguta</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>EGWE-EGBUOMA WARD</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Rehabilitation of Borehole</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Nkwo Egbu</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>AWA WARD</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Supply of hospital beds to five health facilities</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Five health facilities in Awa ward</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>OBUDI/ARO WARD</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Construction of Industrial Boreholes</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Obudi/Aro Ward</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>OBUDI/ARO WARD</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Building of Civic Center</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Obudi/Aro Ward</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>NDIULOUKWU UMUOWERE WARD</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Project details to be determined</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>To be specified</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>UWAORIE WARD</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Construction of Ogbogie openable market shops</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Ogbogie Market</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ORU WARD</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Installation of Solar Boreholes at Health Centre</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Health Centre</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Oru Ward</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>IZOMBE WARD</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Building of lock-up shops</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Ogba-Afor Izombe</t>
         </is>
       </c>
     </row>
@@ -808,7 +3183,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -835,6 +3210,449 @@
       <c r="D1" t="inlineStr">
         <is>
           <t>LOCATION</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>OBITTI/MGBUISII WARD</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Two dwarf marketshops at Mgbuisii market</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Mgbuisii Market</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>OBITTI/MGBUISII WARD</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Public toilet at Obitti market</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Obitti Market</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>EGBEMA WARD A</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Construction &amp; Installation of mono-pumps (man power pumps) in our communities</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Egbema Ward A</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>EGBEMA WARD B</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Construction of Umurji road convert</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Umurji</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>EGBEMA WARD B</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Renovation of Obiakpu school</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Obiakpu</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>EGBEMA WARD C</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Renovation of existing health centres</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Egbema Ward C</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>EGBEMA WARD C</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Social welfare enhancement programs</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Egbema Ward C</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>EGBEMA WARD D</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Renovation of the dilapidated market stall in Opuoma including the market motor park and provision of a central waste point</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Opuoma Market</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>EGBEMA WARD E</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Construction of a modern four (4) block lockup shops</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Egbema Ward E</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>EGBEMA WARD E</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Construction of water Borehole and reticulation</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Egbema Ward E</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>AWARRA/IKWEREDE WARD</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Creating modern markets with necessary amenities to support local business and traders with 10 Units Open Market at Old Market</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Awarra/Ikwerede</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ASSA/OBILE WARD</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Laboratory building at government college</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Assa/Oble</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>EKWUATO WARD</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Provision of Borehole water supply at community centre school</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Community Centre School</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ekwuato</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>EKWUATO WARD</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Provision of Borehole water supply at Nkwo Mgbirichi Market</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Nkwo Mgbirichi Market</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>OHOBA WARD</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Provision of clean drinkable water in schools</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> market</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> and health facilities</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Ohoba Ward</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>UMUAGWO WARD</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Mono pumps across Umuagwo ward: Umuagwo community</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Umukene community</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Etioha community &amp; Okohia community</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Umuagwo Ward</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>UMUAGWO WARD</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Toilet in Umuagwo market</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Umuagwo Market</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>UMUAGWO WARD</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Solar Lights in our health centres (Umuagwo &amp; Etioha)</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Umuagwo &amp; Etioha Health Centres</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>UMUAPU WARD</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Mono pumps across Umuapu ward</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Umuapu Ward</t>
         </is>
       </c>
     </row>
@@ -849,7 +3667,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -860,22 +3678,168 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>S/N</t>
+          <t>WARD</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>WARD</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>PROJECT TO BE EXECUTED</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>LOCATION</t>
+          <t>PROJECT</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AKU WARD</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>RECONSTRUCTION IHUBE-AKU BRIDGE &amp; ROAD GRADING</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>EZINACHI WARD</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>BOREHOLE DRILLING</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>IHUBE WARD</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>RENOVATION OF MARKET/GRADING OF ROADS</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>URBAN 1 WARD</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>UBAHA TOWN HALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>URBAN 11</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>COMMUNITY SECONDARY SCHOOL OKIGWE</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>URBAN 11</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>EKE-OKIGWE MARKET</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>UMULOLO WARD</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>SOLAR DRIVEN BOREHOLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>UMUALUMOKE WARD</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>MINI BRIDGE</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>OGII WARD</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ORIE OGII MARKET \ROADS</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AGBOBU WARD</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>AGBOBU/IZUOGU PRIMARY SCHOOL</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>UMUAWAIBU WARD</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>SOLAR DRIVEN WATER BOREHOLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>UMUAWAIBU WARD</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>300KVA TRANSFORMER</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>AMURO WARD</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>NDI EKWURU BRIDGE</t>
         </is>
       </c>
     </row>
@@ -890,7 +3854,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -917,6 +3881,275 @@
       <c r="D1" t="inlineStr">
         <is>
           <t>LOCATION</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>AMUZI/IHENWEORIE WARD</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Erection of lockup shops</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Orieikpa Market</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>UMUNOMO/UMUCHIEZE WARD</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Construction of open block shops (3 buildings)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Umunomo/Umuchieze</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>OGBOR/UMUEZE WARD</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Construction of open market</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Ogbor/Umueze Ward</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>NNARAMBIA WARD</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Construction of new lockup shops with solar street light</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Designated market areas in Narambia</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>MPAM WARD</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Construction of new lockup shops</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Designated market areas in Mpam</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>OKIRIKA NWEKE WARD</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Construction of new lockup shops</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Designated market areas in Okrika Nweke</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>OPARANADIM WARD</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Drilling of Borehole</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Eke Eziama Market Square Oparanadim</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ORU/LUDE WARD</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Construction of Borehole</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Afor-Oru Market Square</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>OBOHIA/EKWERAZU TOWN WARD</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Construction of Lockup Shops</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Nkwo-Obohia Market Square</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>OGBE WARD</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Refurbishment of Boreholes and tank stand with solar street light</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Ogbe Ward</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>OTULU/AGUNEZE WARD</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Construction of new lockup shops</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Designated market areas in Otulu/Aguneze</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>OKIRIKANWENKWO WARD</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Rehabilitation of borehole water</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Umuokrika Health Centre</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Okrikanwankwo</t>
         </is>
       </c>
     </row>
@@ -931,7 +4164,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -958,6 +4191,226 @@
       <c r="D1" t="inlineStr">
         <is>
           <t>LOCATION</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>EZIAMA WARD 1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>SOLAR POWERED BOREHOLE</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Eziama Ward 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>OWERRE OKWE WARD 2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>SOLAR POWERED STREET LIGHTS</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Owerre Okwe Ward 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>UMUCHEKE OKWE WARD 3</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>SOLAR ENERGY POWERED BOREHOLE</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Umucheke Okwe Ward 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>EZELU WARD 4</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>HIGH SOLAR POWERED STREET LIGHTS</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Ezelu Ward 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>OFAHIA WARD 5</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>HIGH SOLAR POWERED STREET LIGHTS</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Ofahia Ward 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ABOH/OKOHIA WARD 6</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>SOLAR POWERED BOREHOLE</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Aboh/Okohia Ward 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>OZIMO/UMUANUMEZE WARD 7</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>SOLAR POWERED STREET LIGHTS</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Ozimo/Umuakumeze Ward 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>UMUNA WARD 8</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>SOLAR POWERED STREET LIGHTS</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Umuna Ward 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>OKWELLE I WARD 9</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>SOLAR POWERED BOREHOLE</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Okwelle I Ward 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>OKWELLE II WARD 10</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>SOLAR POWERED BOREHOLE</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Okwelle II Ward 10</t>
         </is>
       </c>
     </row>
@@ -972,7 +4425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -999,6 +4452,314 @@
       <c r="D1" t="inlineStr">
         <is>
           <t>LOCATION</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ORLU/MGBEE Ward</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Tarring of Orlu Girls Road</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Orlu</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>OGBERURU WARD</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Borehole</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Ogberuru</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>OWERRE-EBEIRI WARD</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Construction of Five (5) Lockup Shops at Orie Nwowerre Market</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Owelle-Ebeiri</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>AMAIFEKE WARD</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Installation of a Solar Powered Borehole at Afor Ogidi Market</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Amaiheukwu</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>IHITEOWRRI WARD</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Construction of Twenty (20) Openable Shops</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Ihiteowerre</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>EZIACHI/AMIKE WARD</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Construction of Culvert</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Eziachi/Amike</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>UMUDIOKA WARD</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Installation of Solar Street lights</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Umudioka</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>UMUZIKE/UMUOWA WARD</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Building of open shops at Eke Umuowa Market</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Umuike/Umuowa</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>OHAEKE OKPORO WARD</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Installation of a Solar Powered Borehole</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Ohaeke Okporo</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>OHAFOR OKPORO/UMUTANZE WARD</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Construction of Four (4) rooms ultra modern public toilets facility at Orie Okporo Market</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Ohafo Okporo/Umutanze</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>OKWUABALA IHIOMA WARD</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Construction of Five (5) Lockup Shops</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Okwuabala Ihioma</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>UMUNA WARD</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Renovation of central school 1 Umuna</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Umuna</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>UMUNA WARD</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Tarring of Orlu Girls Road to Amaezie</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Umuna</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>EBENESE/UMUEZENACHI WARD</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Installation of Solar powered borehole</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Ebenese/Umuezenachi</t>
         </is>
       </c>
     </row>
@@ -1013,7 +4774,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1040,6 +4801,285 @@
       <c r="D1" t="inlineStr">
         <is>
           <t>LOCATION</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>AMARURU WARD</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Installation of Solar Street Light</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>From Nkwodi Market Road to Ihungwu bordering Lilu town</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>EZIAWA WARD</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Construction of Open Shade</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Eziawa</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ASSAH-UBIRIELEM WARD</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Erosion Control at exit to Anambra State</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Main exit to Anambra State</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>IHITENANSA WARD</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Roofing and Re-equipping of Health Centre</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Ihitenansa Health Centre</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Umudim</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>IHITENANSA WARD</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Construction of Culvert and 20 Open Shops</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Afor Nwa Iro Market</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ama-Na-Ogu</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ORSU-IHITEUKWA WARD</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Installation of Solar Street Light</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Ekeututu International Market Road and environs</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>OKWUETITI WARD</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Construction of Solar Powered 7 Rooms Toilet/Bathroom Facilities</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Ekeubahaeze Market</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Awo-Idemili</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>OKWUAMARAIHE WARD 2</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Installation of Solar Lights</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>To be determined</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>OKWUAMARAIHE WARD 1</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Installation of Solar Lights</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>To be determined</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>OKWUFURUAKU WARD</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Renovation of Maternity Health Center</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Okwufuruaku Ward</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>EBENATOR WARD</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Renovation of Health Centre</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Okwuruokwu Amannachi</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>UMUHU-OKABIA WARD</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Installation of Solar Street Lights</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Umuhu-Okabia Rural Area</t>
         </is>
       </c>
     </row>
@@ -1054,7 +5094,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1081,6 +5121,226 @@
       <c r="D1" t="inlineStr">
         <is>
           <t>LOCATION</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>OMUMA WARD</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Installation of Solar/Electricity Powered Borehole</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Omuma Ward</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>AKATTA WARD</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Installation of Solar/Electricity Powered Borehole</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Akatta Ward</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>AMIRI WARD II</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Installation of Solar/Electricity Powered Borehole</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Amiri Ward II</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>AWO-OMAMMA WARD II</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Reconstruction of Orie Ubachima Market</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Orie Ubachima</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>AWO-OMAMMA WARD I</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Installation of Solar/Electricity Powered Borehole</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Awo-Omamma Ward I</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>AMAGU WARD</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Replacement and Installation of Two Transformers</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Amagu Ward</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>AMIRI WARD I</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Drilling of Solar Energy Powered Borehole</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Onu-Orie Umudioka Amiri Isu Amiri ward 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>AWO-OMAMMA WARD IV</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Drilling of Solar Energy Powered Borehole</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Amaukwu Umueme Awo-omamma Ward 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>AWO-OMAMMA WARD III</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Construction of Solar Powered Borehole</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Awo-Omamma Ward 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>AMAKAOHIA WARD</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Installation of Solar Powered Borehole</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Amakaohia Ward</t>
         </is>
       </c>
     </row>
@@ -1095,7 +5355,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1122,6 +5382,258 @@
       <c r="D1" t="inlineStr">
         <is>
           <t>LOCATION</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>AMAOFUO WARD</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Perimetre fencing of community primary school Amaofuo with iron gate on the both sides of the school</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Community Primary School Amaofuo</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>OZARA WARD</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Fencing with gate of Ozara health centre with solar lights inside the premises</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Ozara Health Centre</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>OHAKPU WARD</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Perimetre fencing of community primary school Ohakpu</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Community Primary School Ohakpu</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>MGBIDI WARD 2</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Fencing of Eziali primary school and two (2) iron gates</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Eziali Primary School</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>IBIASOEGBE WARD</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Renovation of the examination hall in comprehensive secondary school Ibiasoegbe</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Comprehensive Secondary School Ibiasoegbe</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>AJI WARD</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Re-Building of Eke Aji market dilapidated building</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Eke Aji Market</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>MGBIDI WARD 1</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Drilling of a new Solar powered Borehole</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Mgbidi Ward 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>OTULU WARD</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Borehole at Orie Otulu market axis</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Orie Otulu Market</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>OTULU WARD</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Standard toilet facility at Orie Otulu market</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Orie Otulu Market</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>NEMPI/ELEH WARD</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Fencing of western Nempi primary school with iron gate</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Western Nempi Primary School</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>UBULU WARD</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Completion of Nkwi Ogige health centre</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Nkwo Ogige market Axis</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Nkwo Ogige Market</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ubulu</t>
         </is>
       </c>
     </row>
@@ -1136,7 +5648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1147,22 +5659,144 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>S/N</t>
+          <t>WARD</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>WARD</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>PROJECT TO BE EXECUTED</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>LOCATION</t>
+          <t>PROJECT</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>IKENEGBU 1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Construction of Public Toilets/ Borehole</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>IKENEGBU 2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Public Toilet with Borehole and barricade</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AZUZI 1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Drilling of Solar Borehole with Barricade</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AZUZI 2</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Drainage desilting and barricade</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AZUZI 3</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Construction of Solar Borehole and Barricade</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AZUZI 4</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Fabrication and installation of barricade</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ALADINMA 1</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Installation of Borehole</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ALADINMA 2</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Solar Borehole and renovation of Security Post</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>NEW OWERRI 1</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Solar Borehole and Public Toilet</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>NEW OWERRI 2</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Public Toilet with Borehole.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>GRA</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Installation of Borehole</t>
         </is>
       </c>
     </row>
@@ -1177,7 +5811,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1204,6 +5838,270 @@
       <c r="D1" t="inlineStr">
         <is>
           <t>LOCATION</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Emekuku Ward 2</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Installation of Solar Powered Borehole at Ubowalla village and Renovation/Conversion to Solar a moribund borehole at Uboegbelu Health Centre</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Ubowalla village and Uboegbelu Health Centre</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Emekuku Ward 1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Installation of Solar Borehole at Umuakuru Village and Renovation/Conversion to solar of a moribund borehole at Ama Okwu Emekeke Village</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Umuakuru Village and Ama Okwu Emekeke Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Emii Ward</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Construction of 4 classroom blocks at Development School Mbaoma - Emii</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Development School Mbaoma - Emii</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Egbu Ward</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Building of 4 block public restroom (toilet) and installation of solar powered Borehole at Afor Egbu market square</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Afor Egbu market square</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Awaka/Ihitta Ward</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Building of 4 rooms toilet and installation of solar powered Borehole at Amaokwu Primary School</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Amaokwu Primary School</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Amakohia/Akwakuma Ward</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Solar Powered Borehole at Amakohia health center and Roofing of classroom blocks at Community Primary School 1 Amakohia</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Amakohia health center and Community Primary School 1 Amakohia</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Naze Ward</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Building/construction of Naze Central Security House/Office at Secondary School opposite Eze's Palace</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Secondary School opposite Eze's Palace</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>OAU Ward</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Re-roofing of 6 blocks classroom at Ulakwo Community Primary School and Construction of 2 room toilet with water system</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Ulakwo Community Primary School</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Orji Ward</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Building of 4 classroom blocks with toilet facility at Community Primary School II Orji</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Community Primary School II Orji</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Obibiezena Ward</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Installation of solar powered Borehole at Eshiedi Primary School Ogbeke and building of toilet at John Kennedy Secondary School Orie Obibi Obibiezena</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Eshiedi Primary School Ogbeke and John Kennedy Secondary School Orie Obibi Obibiezena</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Obibi Ward 1</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Installation of Solar powered borehole at Nkwo Umuoba and building of toilet facility at Umuorii Market</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Nkwo Umuoba and Umuorii Market</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Obibi Ward 2</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Installation of Solar powered borehole at Eke -Emegbuoha Umunahu Market and building of public toilet at Eke -Emegbuoha</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Eke -Emegbuoha Umunahu Market and Eke -Emegbuoha</t>
         </is>
       </c>
     </row>
@@ -1218,7 +6116,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1245,6 +6143,241 @@
       <c r="D1" t="inlineStr">
         <is>
           <t>LOCATION</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>NDEGWU CENTER WARD 9</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Construction of a block of toilet (4 rooms) with water borehole</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>NDEGU CENTER</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>IHIAGWA WARD 6</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Construction of toilet block (4 rooms) with parking room</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> septic tank</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> generating set</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> borehole and water tank</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Nkwo-Ukwu Market Ihiagwa</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>EZIOBODO/EZIOKELE WARD 5</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Construction of modern toilet facility</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Central Primary School Eziobodo/Eziokele</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>OKOLOCHI/EMEABIAM WARD 4</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Renovation/Fencing of community health center with public borehole water</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Okolochi Autonomous Community</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>OKUKU WARD 3</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Electrification of Health Centre with solar light (7 panels)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Okuku Health Centre</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>UMUGUMA WARD 2</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Construction of Lock-up Shops</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Market Square Umuguma</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>AVU/OFOROLA WARD 1</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Construction of Solar-Powered Borehole</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Ama-ekwe Obokwu Avu</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>IRETE/OROGWE WARD 10</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Construction of four blocks toilets with borehole water</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Ukwuezi Primary School Orogwe</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>OBINZE WARD 8</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>4 room toilet building with soakaway pit and water borehole</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Obize</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>NEKEDE WARD 7</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Construction of solar powered borehole with four room block water system toilet</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Umualum Nekede</t>
         </is>
       </c>
     </row>
@@ -1259,7 +6392,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1270,22 +6403,180 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>S/N</t>
+          <t>WARD</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>WARD</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>PROJECT TO BE EXECUTED</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>LOCATION</t>
+          <t>PROJECT</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>IKPE NSU WARD</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Renovation of primary schools ten thousand gallons solar water borehole</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>UMUEZE 1 WARD</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Water borehole of 3000 gallon capacity with power generating plant</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>IHITTE NSU WARD</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Solar Powered Street Light</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>UMUEZE 2/UMUELEKE WARD</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Water borehole of Three thousand (3000) gallons capacity with power generating plant</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>UMUNUMO WARD</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Training of 60 youth in different skills at Mbara Ozioma College of Technology</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AGBAJA WARD</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Construction of one line open market &amp; Water borehole of Three Thousand (3000) gallons capacity with power generating plant</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>UMUKABIA WARD</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Water borehole of Three Thousand (3000) gallons capacity with power generating plant</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>NZEREM/IKPEM WARD</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Renovation of staff office building of community secondary school Dioka-Nzerem</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>UMUALUMAKU/UMUIHIM WARD</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Solar Powered borehole of 3000 gallons capacity with generating set</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>UMUEZEALA WARD</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Water borehole of Three Thousand (3000) gallons capacity with power generating plant</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>UMUEZEALA WARD</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Public Toilet</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>UMUEZEALA WARD</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Renovation of 4 Block Classroom</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>UMUNAKANU WARD</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Water borehole of 4000 gallon capacity with power generating plant</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>UMUNAKANU WARD</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Rehabilitation of Water borehole of 10000 gallon capacity</t>
         </is>
       </c>
     </row>
@@ -1605,7 +6896,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1632,6 +6923,642 @@
       <c r="D1" t="inlineStr">
         <is>
           <t>LOCATION</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>AKWU-OWERRI AKOKWA WARD</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Construction of Culvert</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Akwu-Owerri Akokwa</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>AKWU-OWERRI AKOKWA WARD</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Construction of Drainage/Gutter</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Akwu-Owerri Akokwa</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>NDIMOKO WARD</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Construction of a new sanitary facility &amp; Renovation of HM's Staff office in the community primary school</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Community Primary School Ndimoko</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>NDIMOKO WARD</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Provision of new reading desk furniture/chair for the class rooms</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Community Primary School Ndimoko</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>OBODOUKWU WARD</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Construction of modern primary school hall (CS3)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Obodoukwu</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>OBODOUKWU WARD</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Construction of Public toilet at Eke Obodoukwu Market</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Obodoukwu</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>OZUAKOLI/UMUAGO WARD</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Installation of 33KVA transformer</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Ozuakoli/Umuago</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>OZUAKOLI/UMUAGO WARD</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Installation of street light</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Ozuakoli/Umuago</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>IHEME WARD</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Renovation of the Health Centre at Ikpeze Uno</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Ikpeze Uno</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Iheme Autonomous Community</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>IHEME WARD</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Construction of culvert at Umunwoke/Saint Phillips Road</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Umunwoke/Saint Phillips Road</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ndi-Akeme Uno</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Arondizuogu</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>OSINA WARD</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Construction of Culvert</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Osina</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>OSINA WARD</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Rehabilitation of Road</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Osina</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>OZU/EZEMAZU WARD</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Training workshop on agriculture and green spaces</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Ozu/Ezemazu</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>OZU/EZEMAZU WARD</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Develop youth mentorship programmes / after school activities</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Ozu/Ezemazu</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ISIOKPO WARD</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Construction of open shades at Affor Isiokpo Market</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Isiokpo</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ISIOKPO WARD</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Construction of modern toilet facility in Ideato-North modern primary school</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Isiokpo</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>IZUOGU WARD 1</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>3 toilet blocks facilities for three (3) community schools in ward 1 at Ndiawa</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Ndiawa</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>IZUOGU WARD 1</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>3 toilet blocks facilities for three (3) community schools in ward 1 at Ndiadimoha</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Ndiadimoha</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>IZUOGU WARD 2</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Road Culverts of b metres length</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1 metre weight and 0.9 Metre depth</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Izuogu Ward 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>IZUOGU WARD 2</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>A block of three (3) toilet facilities for schools</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Izuogu Ward 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>AKPULU WARD</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>To make or create a centre for craft-training of sewing for students of Akpulu Secondary School Akpulu (ASSA) particularly by installing 4 singer or butterfly sewing machine for the students who will show interest in learning the skill</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Akpulu Secondary School Akpulu</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>AKPULU WARD</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Construction of culvert at the entrance of umuada or ada Akpulu daughters association</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Akpulu</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>UZII UMU-ALAOMA WARD</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Two culverts at Umualaoma community to be sited at Uchu/Obinuhu and Etiti-Alaike via Obi Ajaegbu</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Umualaoma</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>UZII UMU-ALAOMA WARD</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Another Culvert to be sited at uzii community</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Uzii</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>UMUKEGWU/UMUOPIA WARD</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Roofing of Central school Umuopia Akokwa</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Umuopia Akokwa</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>UMUKEGWU/UMUOPIA WARD</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Building of toilets in Ekezeala community nursery/primary school</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Ekezeala Community Nursery/Primary School Umukegwu</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>UMUOKWARA/UMUEZEAGA WARD</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Building of Culverts</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Umuokwara/Umuezeaga</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>UMUOKWARA/UMUEZEAGA WARD</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Erection of toilet in Umuokwara Central School</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Umuokwara Central School</t>
         </is>
       </c>
     </row>
@@ -1646,7 +7573,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1673,6 +7600,358 @@
       <c r="D1" t="inlineStr">
         <is>
           <t>LOCATION</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Ogboko Ward 1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Installation of Solar Powered Borehole Dual &amp; Generator</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Ogboko Ward 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Umuakam/Umuago Ward</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Renovation of Nkwo Market and Construction of public toilet facility</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Nkwo Market</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Umumobom Ward</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Construction of Open shades at Orie Umuobom &amp; Renovation of the market</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Orie Umuobom Market</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Obiohia Ward</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Installation of Electrical Poles and Electric wires in three villages that have not experienced electricity before</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Three villages in Obiohia Ward</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Obiohia Ward</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Installation of solar street light round the community</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Obiohia Ward community</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Obiohia Ward</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Building of modern market</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Obiohia Ward</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Isiekeniesie Ward 2</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Renovation of Nkwo Market</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Nkwo Market</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Isiekeniesie Ward 2</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Construction of public toilet facility</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Isiekeniesie Ward 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Umuchima Ward</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Construction of four room lock up shops with packing store at Nkwo Umuchima</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Nkwo Umuchima</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Ntueke Ward</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Renovation/Construction of lock up shops at Ntueke market</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Ntueke market</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Ogboko Ward 2</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Solar Powered Borehole powered by Generator</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Ogboko Ward 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Isiekeniesie Ward 1</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Construction of culverts on the roads/streets of Isiekenesi Ward 1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Isiekenesi Ward 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Umuma Isiaku Ward</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Renovation of Umuegbu Nkwo Market</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Umuegbu Nkwo Market</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Ugelle Ward</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Renovation of 12 classroom block at the Comprehensive Secondary School Ugbelle</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Comprehensive Secondary School Ugbelle</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Dikenafai Ward</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Construction of one gigantic stall at Orie Ukwu Dikenafai with a paved surrounding</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Orie Ukwu Dikenafai</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Amanato/Umueshi Ward</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Construction of six (6) modern lock up shops at Umueshi Community Market Amanato/Umueshi Ward</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Umueshi Community Market</t>
         </is>
       </c>
     </row>
@@ -1687,7 +7966,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1714,6 +7993,261 @@
       <c r="D1" t="inlineStr">
         <is>
           <t>LOCATION</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ABUEKE WARD</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Renovation of sections of Abueke Healthcare centre</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Abueke</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>AMAINYI WARD</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Installation of solar streetlights across all parts of Amainyi ward</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Amainyi</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>AMAKOHIA WARD</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Construction/Building of market at Nkwo Ihitte market square</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Amakohia</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ATONERIM WARD</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Renovation of Eke Elungwu market at Atonerim ward</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Atonerim</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>AWUCHINUMO WARD</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Renovation of a 3-classroom block with office at community primary school</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Umuawuchi</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> including: Reroofing</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Plastering</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Painting</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Community Primary School</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Umuawuchi</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>DIMNEZE WARD</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Renovation and roofing of Ezimba health centre</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Ezimba</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>OKATA WARD</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Fencing of Okata health Centre</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Okata</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>IKPEREJERE WARD</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Construction/Building of new 2 bedroom self-contained quarters for healthcare sisters at Umuoma autonomous community</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Umuoma</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>UMUEZEGWU WARD</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Renovation/Reconstruction of Eke Umuezegwu Market</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Umuezegwu</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>UMUIHI WARD</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Rehabilitation</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> reticulation</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> and installation of solar powered Borehole located at Afor Umuihi</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Umuihi</t>
         </is>
       </c>
     </row>
@@ -1728,7 +8262,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1755,6 +8289,270 @@
       <c r="D1" t="inlineStr">
         <is>
           <t>LOCATION</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Iho Ward</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Construction of 6 Units of Lockup Shops at Eke Iho Market</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Eke Iho Market</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Amaimo Ward</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Construction of 6 Units of Lockup Shops at Nkwoimo Market Amaimo</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Nkwoimo Market Amaimo</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Atta Ward 2</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Construction of 24 Units of Open Shops at Eke Atta Market</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Eke Atta Market</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Amakohia Ward</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Installation of Solar-Powered Borehole Scheme at Amakohia and 20 Pieces of Solar Street Lights</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Amakohia</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Agba Ward</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Completion of Window Fittings at Ebikoro Women Civic Centre with Perimeter Fence at Nkwo Aboh</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Ebikoro Women Civic Centre with Perimeter Fence at Nkwo Aboh</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Inyishi/Umudim Ward</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Construction of 6 Units of Lockup Shops at Eke Inyishi Market</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Eke Inyishi Market</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Atta Ward 1</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Construction of 24 Units of Open Shops at Eke Atta Market</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Eke Atta Market</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Akabo Ward</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Construction of a 4-Room Security Post at Akabo</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Akabo</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Okwu/Ugirike/Eziama Ward</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Construction of 24 Units of open shops at Nkwo Ugiri-ike Market</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Nkwo Ugiri-ike Market</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Avuvu Ward</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Installation of Solar powered Water Scheme at Avuvu Ward and 20 Pieces of Solar Street Lights</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Avuvu Ward</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Ngugo/Ikembara Ward</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Renovation of Ikembara Health Centre</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Ikembara Health Centre</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Amatta Ward</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Construction of a 4-Room Administrative Secretariat for Amatta Town Union</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Amatta Town Union</t>
         </is>
       </c>
     </row>
@@ -1769,7 +8567,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1799,6 +8597,270 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>UMUELEMAI</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Construction of open Market Stalls at Nkwo Umunkwo Market Square</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Umuelemai</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>USU-OWEERE WARD 2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Construction of open Market Stalls at Orie Ezihe Market Square</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Usu-Oweere Ward 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>OSUOWERRE WARD 1</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Presentation of Constituency projects for Ouowerre ward 1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Osouwerre Ward 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>OBOLLO WARD</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Construction of Open market at Nkwo Obollo Market Square</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Obollo Ward</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>OGBOR WARD</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Construction of Lock up shop(s) at Eke Ogbor Market</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Ogbor Ward</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>OSUAMA/ANARA WARD</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Construction of a Community Borehole at Osuama-Anara Ward</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Osuama/Anara Ward</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>IBEME WARD</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Opening a solar powered Borehole at Orie Umuonyeogu Market and Afor Ibeme market</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Ibeme Ward</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>UGIRI OKA WARD</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Construction of Open market stalls at Eke umuneke Market</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Ugiri Oka Ward</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>AMARAKU WARD</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Solar Powered Borehole with Solar Powered Sumo</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Amaraku Ward</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>UMUOZU WARD</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Construction of open Market Phase 1 at Umuozo Autonomous Community</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Umuozu Ward</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>OSUACHARA WARD</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Construction of an Open Market</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Osuachara Ward</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>AMAUZARI WARD</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Provision of Solar powered Borehole water</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Amauzari Ward</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
